--- a/诚德行软件设计/业务资料界面.xlsx
+++ b/诚德行软件设计/业务资料界面.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="撰稿" sheetId="1" r:id="rId1"/>
+    <sheet name="撰稿流程" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>报告编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,74 @@
   </si>
   <si>
     <t>系数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分派撰稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接发起撰稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勘察完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待分配撰稿列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配撰稿人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充勘察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写面积、单价、总价向业务员报价；如缺资料要求业务员补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -360,11 +428,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -403,6 +528,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,20 +552,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,6 +653,599 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1381125" y="495300"/>
+          <a:ext cx="2047875" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1362075" y="504825"/>
+          <a:ext cx="2047875" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="肘形连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2762250" y="609600"/>
+          <a:ext cx="685800" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="733425"/>
+          <a:ext cx="9525" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2771775" y="2057400"/>
+          <a:ext cx="638175" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="肘形连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="2190750"/>
+          <a:ext cx="2590800" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="菱形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="3028950"/>
+          <a:ext cx="1924050" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是否有报价</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="2171700"/>
+          <a:ext cx="57150" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="肘形连接符 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4857750" y="2543175"/>
+          <a:ext cx="2209800" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99138"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="肘形连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5972176" y="1295400"/>
+          <a:ext cx="1057275" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100450"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="肘形连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3724275" y="1943101"/>
+          <a:ext cx="1895475" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 96734"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="肘形连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="933450" y="1819274"/>
+          <a:ext cx="4419600" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3448"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -798,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -811,37 +1550,37 @@
   <sheetData>
     <row r="5" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="7"/>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -853,15 +1592,15 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="7"/>
       <c r="H9" s="5" t="s">
         <v>20</v>
@@ -873,15 +1612,15 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="7"/>
       <c r="H10" s="5" t="s">
         <v>21</v>
@@ -893,15 +1632,15 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="7"/>
       <c r="H11" s="5" t="s">
         <v>23</v>
@@ -913,14 +1652,14 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="26"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24"/>
       <c r="H12" s="5" t="s">
         <v>22</v>
       </c>
@@ -931,15 +1670,15 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="10"/>
       <c r="H13" s="8" t="s">
         <v>24</v>
@@ -1138,11 +1877,6 @@
     <row r="25" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="C12:F12"/>
@@ -1154,6 +1888,11 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1163,14 +1902,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="9" style="28"/>
+    <col min="6" max="6" width="11.125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9" style="28"/>
+    <col min="8" max="8" width="13.375" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="31"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="2:10" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
